--- a/biology/Zoologie/Agraecia/Agraecia.xlsx
+++ b/biology/Zoologie/Agraecia/Agraecia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agroecia, Bertoniella, Guaranina
 Agraecia est un genre de sauterelles de la famille des Tettigoniidae. 
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce genre a été valablement publié pour la première fois en 1831 par l'entomologiste français Jean Guillaume Audinet-Serville (1775-1858).
-Synonymes
-Selon GBIF en 2023 les synonymes référencés sont[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de ce genre a été valablement publié pour la première fois en 1831 par l'entomologiste français Jean Guillaume Audinet-Serville (1775-1858).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agraecia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agraecia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF en 2023 les synonymes référencés sont :
 Agroecia Audinet-Serville, 1831
 Agroecia Burmeister, 1838
 Bertoniella Rehn, 1911
@@ -524,33 +573,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Agraecia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agraecia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Agraecia comprend les espèces suivantes[2],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Agraecia comprend les espèces suivantes, :
 Agraecia abbreviata Redtenbacher, 1891
 Agraecia agraecioides Rehn, 1911
 Agraecia cesairei Hugel, 2009
